--- a/public/data/租船计划.xlsx
+++ b/public/data/租船计划.xlsx
@@ -4,12 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6880"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="2024" sheetId="1" r:id="rId1"/>
+    <sheet name="2025" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,36 +28,264 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>序号</t>
-  </si>
-  <si>
-    <t>年份</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="86">
+  <si>
+    <t>船名</t>
+  </si>
+  <si>
+    <t>船型</t>
+  </si>
+  <si>
+    <t>租期</t>
   </si>
   <si>
     <t>公司</t>
   </si>
   <si>
-    <t>租船数量</t>
-  </si>
-  <si>
-    <t>租船航次</t>
-  </si>
-  <si>
-    <t>江苏公司</t>
-  </si>
-  <si>
-    <t>山东公司</t>
-  </si>
-  <si>
-    <t>河北公司</t>
-  </si>
-  <si>
-    <t>河南公司</t>
-  </si>
-  <si>
-    <t>安徽公司</t>
+    <t>租船1</t>
+  </si>
+  <si>
+    <t>3万吨</t>
+  </si>
+  <si>
+    <t>1个月</t>
+  </si>
+  <si>
+    <t>武汉航运</t>
+  </si>
+  <si>
+    <t>租船2</t>
+  </si>
+  <si>
+    <t>5万吨</t>
+  </si>
+  <si>
+    <t>6个月</t>
+  </si>
+  <si>
+    <t>海南公司</t>
+  </si>
+  <si>
+    <t>租船3</t>
+  </si>
+  <si>
+    <t>远海内贸</t>
+  </si>
+  <si>
+    <t>租船4</t>
+  </si>
+  <si>
+    <t>租船5</t>
+  </si>
+  <si>
+    <t>天津海运</t>
+  </si>
+  <si>
+    <t>租船6</t>
+  </si>
+  <si>
+    <t>7万吨</t>
+  </si>
+  <si>
+    <t>3个月</t>
+  </si>
+  <si>
+    <t>租船7</t>
+  </si>
+  <si>
+    <t>天津航运</t>
+  </si>
+  <si>
+    <t>租船8</t>
+  </si>
+  <si>
+    <t>1航次</t>
+  </si>
+  <si>
+    <t>租船9</t>
+  </si>
+  <si>
+    <t>租船10</t>
+  </si>
+  <si>
+    <t>租船11</t>
+  </si>
+  <si>
+    <t>租船12</t>
+  </si>
+  <si>
+    <t>租船13</t>
+  </si>
+  <si>
+    <t>租船14</t>
+  </si>
+  <si>
+    <t>租船15</t>
+  </si>
+  <si>
+    <t>租船16</t>
+  </si>
+  <si>
+    <t>租船17</t>
+  </si>
+  <si>
+    <t>租船18</t>
+  </si>
+  <si>
+    <t>租船19</t>
+  </si>
+  <si>
+    <t>租船20</t>
+  </si>
+  <si>
+    <t>租船21</t>
+  </si>
+  <si>
+    <t>租船22</t>
+  </si>
+  <si>
+    <t>租船23</t>
+  </si>
+  <si>
+    <t>租船24</t>
+  </si>
+  <si>
+    <t>租船25</t>
+  </si>
+  <si>
+    <t>租船26</t>
+  </si>
+  <si>
+    <t>租船27</t>
+  </si>
+  <si>
+    <t>租船28</t>
+  </si>
+  <si>
+    <t>租船29</t>
+  </si>
+  <si>
+    <t>租船30</t>
+  </si>
+  <si>
+    <t>租船31</t>
+  </si>
+  <si>
+    <t>租船32</t>
+  </si>
+  <si>
+    <t>租船33</t>
+  </si>
+  <si>
+    <t>租船34</t>
+  </si>
+  <si>
+    <t>租船35</t>
+  </si>
+  <si>
+    <t>租船36</t>
+  </si>
+  <si>
+    <t>租船37</t>
+  </si>
+  <si>
+    <t>租船38</t>
+  </si>
+  <si>
+    <t>租船39</t>
+  </si>
+  <si>
+    <t>租船40</t>
+  </si>
+  <si>
+    <t>租船41</t>
+  </si>
+  <si>
+    <t>租船42</t>
+  </si>
+  <si>
+    <t>租船43</t>
+  </si>
+  <si>
+    <t>租船44</t>
+  </si>
+  <si>
+    <t>租船45</t>
+  </si>
+  <si>
+    <t>租船46</t>
+  </si>
+  <si>
+    <t>租船47</t>
+  </si>
+  <si>
+    <t>租船48</t>
+  </si>
+  <si>
+    <t>租船49</t>
+  </si>
+  <si>
+    <t>租船50</t>
+  </si>
+  <si>
+    <t>租船51</t>
+  </si>
+  <si>
+    <t>租船52</t>
+  </si>
+  <si>
+    <t>租船53</t>
+  </si>
+  <si>
+    <t>租船54</t>
+  </si>
+  <si>
+    <t>租船55</t>
+  </si>
+  <si>
+    <t>租船56</t>
+  </si>
+  <si>
+    <t>租船57</t>
+  </si>
+  <si>
+    <t>租船58</t>
+  </si>
+  <si>
+    <t>租船59</t>
+  </si>
+  <si>
+    <t>租船60</t>
+  </si>
+  <si>
+    <t>租船61</t>
+  </si>
+  <si>
+    <t>租船62</t>
+  </si>
+  <si>
+    <t>租船63</t>
+  </si>
+  <si>
+    <t>租船64</t>
+  </si>
+  <si>
+    <t>租船65</t>
+  </si>
+  <si>
+    <t>租船66</t>
+  </si>
+  <si>
+    <t>租船67</t>
+  </si>
+  <si>
+    <t>租船68</t>
+  </si>
+  <si>
+    <t>租船69</t>
+  </si>
+  <si>
+    <t>租船70</t>
   </si>
 </sst>
 </file>
@@ -71,7 +298,22 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="22">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -418,12 +660,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -544,140 +801,144 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -996,114 +1257,1006 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:D71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
+    <row r="1" customHeight="1" spans="1:4">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>2025</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2">
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:4">
+      <c r="A4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:4">
+      <c r="A5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E2">
+      <c r="B14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>2025</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B51" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C57" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D3">
-        <v>22</v>
-      </c>
-      <c r="E3">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>2025</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D57" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D4">
-        <v>31</v>
-      </c>
-      <c r="E4">
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>2025</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5">
-        <v>24</v>
-      </c>
-      <c r="E5">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>2025</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B58" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D6">
-        <v>27</v>
-      </c>
-      <c r="E6">
-        <v>61</v>
+      <c r="C58" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1119,27 +2272,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
